--- a/output/combined-summary.xlsx
+++ b/output/combined-summary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbutl20\PyCharmProjects\nlp-bnf-atc-mapping\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbutl20/PyCharmProjects/nlp-bnf-atc-mapping/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C98D792-E3FF-7140-9BEF-437F0C8A5040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="465" windowWidth="37755" windowHeight="20580"/>
+    <workbookView xWindow="160" yWindow="580" windowWidth="37760" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="2" r:id="rId1"/>
@@ -30,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Common Misspellings'!$A$1:$C$56</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="221">
   <si>
     <t>Scorer</t>
   </si>
@@ -694,12 +695,21 @@
   </si>
   <si>
     <t>Adj. Rate</t>
+  </si>
+  <si>
+    <t>% diff</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Calc Hit Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -828,7 +838,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1113,9 +1123,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1127,9 +1134,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1138,6 +1142,21 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1198,7 +1217,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1365,7 +1383,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1623,7 +1640,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1730,7 +1746,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1778,7 +1793,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1786,6 +1800,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1855,7 +1870,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1967,7 +1981,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2227,7 +2240,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2348,7 +2360,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2423,7 +2434,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2431,6 +2441,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2506,7 +2517,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2618,7 +2628,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2878,7 +2887,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3000,7 +3008,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3075,7 +3082,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3083,6 +3089,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4756,7 +4763,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0"/>
@@ -4768,7 +4775,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0"/>
@@ -4780,7 +4787,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="130" workbookViewId="0"/>
@@ -5556,46 +5563,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.125" customWidth="1"/>
-    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.25" customWidth="1"/>
-    <col min="16" max="16" width="17.625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="6.875" customWidth="1"/>
-    <col min="18" max="18" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.75" customWidth="1"/>
-    <col min="22" max="22" width="8.875" customWidth="1"/>
-    <col min="23" max="23" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" customWidth="1"/>
+    <col min="22" max="22" width="8.83203125" customWidth="1"/>
+    <col min="23" max="23" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.5" customWidth="1"/>
-    <col min="25" max="25" width="7.75" customWidth="1"/>
-    <col min="26" max="26" width="6.75" customWidth="1"/>
-    <col min="28" max="28" width="5.375" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" customWidth="1"/>
+    <col min="26" max="26" width="6.6640625" customWidth="1"/>
+    <col min="28" max="28" width="5.33203125" customWidth="1"/>
+    <col min="29" max="29" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
@@ -5680,8 +5688,11 @@
       <c r="AB1" s="118" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC1" s="24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -5773,7 +5784,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -5865,7 +5876,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -5957,7 +5968,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -6049,7 +6060,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -6141,7 +6152,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -6233,7 +6244,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -6325,7 +6336,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>23</v>
       </c>
@@ -6417,7 +6428,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>26</v>
       </c>
@@ -6509,7 +6520,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
         <v>24</v>
       </c>
@@ -6601,7 +6612,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
         <v>25</v>
       </c>
@@ -6693,7 +6704,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
         <v>22</v>
       </c>
@@ -6785,7 +6796,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -6877,7 +6888,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -6969,7 +6980,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -7061,7 +7072,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -7153,7 +7164,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
@@ -7245,7 +7256,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
@@ -7337,7 +7348,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -7429,7 +7440,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -7521,7 +7532,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
         <v>41</v>
       </c>
@@ -7613,7 +7624,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
         <v>45</v>
       </c>
@@ -7705,7 +7716,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>39</v>
       </c>
@@ -7797,7 +7808,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
         <v>43</v>
       </c>
@@ -7889,7 +7900,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
         <v>40</v>
       </c>
@@ -7981,7 +7992,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>44</v>
       </c>
@@ -8073,7 +8084,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
         <v>38</v>
       </c>
@@ -8165,7 +8176,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
         <v>42</v>
       </c>
@@ -8257,7 +8268,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="I30" s="13"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -8269,7 +8280,7 @@
       <c r="Y30" s="22"/>
       <c r="Z30" s="22"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>181</v>
       </c>
@@ -8284,7 +8295,7 @@
       <c r="Y31" s="22"/>
       <c r="Z31" s="22"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
         <v>172</v>
       </c>
@@ -8299,7 +8310,7 @@
       <c r="Y32" s="22"/>
       <c r="Z32" s="22"/>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -8392,7 +8403,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -8485,7 +8496,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -8578,7 +8589,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -8671,7 +8682,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -8764,7 +8775,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -8857,7 +8868,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -8950,7 +8961,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -9043,7 +9054,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -9136,7 +9147,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -9229,7 +9240,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -9322,7 +9333,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -9415,49 +9426,97 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="M45" s="119"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S45" s="52">
+        <v>3</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="M46" s="119"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S46" s="52">
+        <v>3</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="M47" s="119"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S47" s="52">
+        <v>3</v>
+      </c>
+      <c r="T47" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="M48" s="119"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S48" s="52">
+        <v>3</v>
+      </c>
+      <c r="T48" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M49" s="119"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="S49" s="52">
+        <v>3</v>
+      </c>
+      <c r="T49" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M50" s="119"/>
       <c r="R50" s="21"/>
+      <c r="S50" s="52">
+        <v>3</v>
+      </c>
+      <c r="T50" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="X50" s="21"/>
       <c r="Y50" s="22"/>
       <c r="Z50" s="22"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M51" s="119"/>
       <c r="R51" s="21"/>
+      <c r="S51" s="52">
+        <v>3</v>
+      </c>
+      <c r="T51" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
       <c r="X51" s="21"/>
       <c r="Y51" s="22"/>
       <c r="Z51" s="22"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M52" s="119"/>
       <c r="R52" s="21"/>
+      <c r="S52" s="52">
+        <v>3</v>
+      </c>
+      <c r="T52" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
       <c r="X52" s="21"/>
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M53" s="119"/>
       <c r="R53" s="21"/>
       <c r="U53" s="5"/>
@@ -9466,7 +9525,7 @@
       <c r="Y53" s="22"/>
       <c r="Z53" s="22"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M54" s="119"/>
       <c r="R54" s="21"/>
       <c r="U54" s="5"/>
@@ -9475,7 +9534,7 @@
       <c r="Y54" s="22"/>
       <c r="Z54" s="22"/>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="M55" s="119"/>
       <c r="R55" s="21"/>
       <c r="U55" s="5"/>
@@ -9484,7 +9543,7 @@
       <c r="Y55" s="22"/>
       <c r="Z55" s="22"/>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="I56" s="13"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -9499,7 +9558,7 @@
       <c r="Y56" s="22"/>
       <c r="Z56" s="22"/>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="I57" s="13"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -9514,7 +9573,7 @@
       <c r="Y57" s="22"/>
       <c r="Z57" s="22"/>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="s">
         <v>173</v>
       </c>
@@ -9532,7 +9591,7 @@
       <c r="Y58" s="22"/>
       <c r="Z58" s="22"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>47</v>
       </c>
@@ -9599,23 +9658,23 @@
         <v>131</v>
       </c>
       <c r="V59" s="5">
-        <f t="shared" ref="V59:V70" si="14">150-U59</f>
+        <f t="shared" ref="V59:V79" si="14">150-U59</f>
         <v>19</v>
       </c>
       <c r="W59">
-        <f t="shared" ref="W59:W70" si="15">U59-B59</f>
+        <f t="shared" ref="W59:W79" si="15">U59-B59</f>
         <v>0</v>
       </c>
       <c r="X59" s="21">
-        <f t="shared" ref="X59:X70" si="16">U59/$U$59</f>
+        <f t="shared" ref="X59:X79" si="16">U59/$U$59</f>
         <v>1</v>
       </c>
       <c r="Y59" s="22">
-        <f t="shared" ref="Y59:Y70" si="17">(((U59)/$U$59)*(100)) +  (100*N59) + (100*(W59/150)) - (100 * (1-J59))</f>
+        <f t="shared" ref="Y59:Y79" si="17">(((U59)/$U$59)*(100)) +  (100*N59) + (100*(W59/150)) - (100 * (1-J59))</f>
         <v>196.88081318097261</v>
       </c>
       <c r="Z59" s="22">
-        <f t="shared" ref="Z59:Z70" si="18">(X59*(100))+(100*N59)-(100*(1-K59)*X59)-(100*(1-I59)*X59)</f>
+        <f t="shared" ref="Z59:Z79" si="18">(X59*(100))+(100*N59)-(100*(1-K59)*X59)-(100*(1-I59)*X59)</f>
         <v>194.4095038434661</v>
       </c>
       <c r="AA59" t="s">
@@ -9624,8 +9683,12 @@
       <c r="AB59" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC59">
+        <f>B59/150</f>
+        <v>0.87333333333333329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -9688,7 +9751,7 @@
         <v>20</v>
       </c>
       <c r="U60" s="5">
-        <f t="shared" ref="U60:U70" si="19">Q60*150</f>
+        <f t="shared" ref="U60:U79" si="19">Q60*150</f>
         <v>140</v>
       </c>
       <c r="V60" s="5">
@@ -9717,8 +9780,12 @@
       <c r="AB60" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC60">
+        <f t="shared" ref="AC60:AC79" si="20">B60/150</f>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -9810,8 +9877,12 @@
       <c r="AB61" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC61">
+        <f t="shared" si="20"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -9903,8 +9974,12 @@
       <c r="AB62" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC62">
+        <f t="shared" si="20"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -9996,8 +10071,12 @@
       <c r="AB63" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC63">
+        <f t="shared" si="20"/>
+        <v>0.87333333333333329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -10089,8 +10168,12 @@
       <c r="AB64" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC64">
+        <f t="shared" si="20"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>18</v>
       </c>
@@ -10182,8 +10265,12 @@
       <c r="AB65" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC65">
+        <f t="shared" si="20"/>
+        <v>0.87333333333333329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -10275,8 +10362,12 @@
       <c r="AB66" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC66">
+        <f t="shared" si="20"/>
+        <v>0.87333333333333329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -10368,8 +10459,12 @@
       <c r="AB67" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC67">
+        <f t="shared" si="20"/>
+        <v>0.87333333333333329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -10461,8 +10556,12 @@
       <c r="AB68" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC68">
+        <f t="shared" si="20"/>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>25</v>
       </c>
@@ -10554,8 +10653,12 @@
       <c r="AB69" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC69">
+        <f t="shared" si="20"/>
+        <v>0.90666666666666662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -10647,9 +10750,522 @@
       <c r="AB70" t="s">
         <v>179</v>
       </c>
+      <c r="AC70">
+        <f t="shared" si="20"/>
+        <v>0.87333333333333329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="I71" s="13"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="119"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="52">
+        <v>3</v>
+      </c>
+      <c r="T71" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U71" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="5">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X71" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="22">
+        <f t="shared" si="17"/>
+        <v>-100</v>
+      </c>
+      <c r="Z71" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="I72" s="13"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="119"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="52">
+        <v>3</v>
+      </c>
+      <c r="T72" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U72" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="5">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="22">
+        <f t="shared" si="17"/>
+        <v>-100</v>
+      </c>
+      <c r="Z72" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="I73" s="13"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="119"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="36"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="52">
+        <v>3</v>
+      </c>
+      <c r="T73" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U73" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V73" s="5">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X73" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="22">
+        <f t="shared" si="17"/>
+        <v>-100</v>
+      </c>
+      <c r="Z73" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="I74" s="13"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="119"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="52">
+        <v>3</v>
+      </c>
+      <c r="T74" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U74" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="5">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X74" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="22">
+        <f t="shared" si="17"/>
+        <v>-100</v>
+      </c>
+      <c r="Z74" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="I75" s="13"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="119"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="52">
+        <v>3</v>
+      </c>
+      <c r="T75" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U75" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="5">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X75" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="22">
+        <f t="shared" si="17"/>
+        <v>-100</v>
+      </c>
+      <c r="Z75" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC75">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="I76" s="13"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="119"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="52">
+        <v>3</v>
+      </c>
+      <c r="T76" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U76" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V76" s="5">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X76" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="22">
+        <f t="shared" si="17"/>
+        <v>-100</v>
+      </c>
+      <c r="Z76" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC76">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="I77" s="13"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="119"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37"/>
+      <c r="R77" s="21"/>
+      <c r="S77" s="52">
+        <v>3</v>
+      </c>
+      <c r="T77" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U77" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="5">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X77" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y77" s="22">
+        <f t="shared" si="17"/>
+        <v>-100</v>
+      </c>
+      <c r="Z77" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC77">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="I78" s="13"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="119"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="37"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="52">
+        <v>3</v>
+      </c>
+      <c r="T78" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U78" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="5">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X78" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y78" s="22">
+        <f t="shared" si="17"/>
+        <v>-100</v>
+      </c>
+      <c r="Z78" s="22">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79">
+        <v>133</v>
+      </c>
+      <c r="C79">
+        <v>17</v>
+      </c>
+      <c r="D79">
+        <v>368</v>
+      </c>
+      <c r="E79">
+        <v>161</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79">
+        <v>207</v>
+      </c>
+      <c r="H79">
+        <v>377</v>
+      </c>
+      <c r="I79" s="13">
+        <v>0.96987951807228912</v>
+      </c>
+      <c r="J79" s="13">
+        <v>0.64554794520547942</v>
+      </c>
+      <c r="K79" s="13">
+        <v>0.4375</v>
+      </c>
+      <c r="L79" s="13">
+        <v>0.71733333333333338</v>
+      </c>
+      <c r="M79" s="13">
+        <v>0.80771373163888427</v>
+      </c>
+      <c r="N79" s="13">
+        <v>0.60299625468164797</v>
+      </c>
+      <c r="O79" s="14">
+        <v>0.84</v>
+      </c>
+      <c r="P79" s="14">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="Q79" s="14">
+        <v>0.87333333333333329</v>
+      </c>
+      <c r="S79" s="22">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s">
+        <v>37</v>
+      </c>
+      <c r="U79" s="5">
+        <f t="shared" si="19"/>
+        <v>131</v>
+      </c>
+      <c r="V79" s="5">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="15"/>
+        <v>-2</v>
+      </c>
+      <c r="X79" s="21">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y79" s="22">
+        <f t="shared" si="17"/>
+        <v>123.52108665537941</v>
+      </c>
+      <c r="Z79" s="22">
+        <f t="shared" si="18"/>
+        <v>101.03757727539372</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC79">
+        <f t="shared" si="20"/>
+        <v>0.88666666666666671</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AC29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC29">
     <sortCondition ref="S2:S29"/>
     <sortCondition ref="A2:A29"/>
   </sortState>
@@ -10658,45 +11274,45 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="104" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="104" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="104" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="104" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.375" style="104" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" style="104" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.125" style="104" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="104" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" style="104" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" style="104" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.125" style="104" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="104" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="104" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="104" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="120" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="129" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120" t="s">
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -10731,7 +11347,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>47</v>
       </c>
@@ -10766,7 +11382,7 @@
         <v>0.87333333333333329</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>14</v>
       </c>
@@ -10801,7 +11417,7 @@
         <v>0.87333333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
@@ -10836,7 +11452,7 @@
         <v>0.91333333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>16</v>
       </c>
@@ -10871,7 +11487,7 @@
         <v>0.94666666666666666</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>19</v>
       </c>
@@ -10906,7 +11522,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>15</v>
       </c>
@@ -10941,7 +11557,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>17</v>
       </c>
@@ -10986,7 +11602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -10994,13 +11610,13 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" style="27"/>
-    <col min="2" max="2" width="112.625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="112.6640625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>59</v>
       </c>
@@ -11011,7 +11627,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>122</v>
       </c>
@@ -11022,7 +11638,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
         <v>62</v>
       </c>
@@ -11033,7 +11649,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
         <v>64</v>
       </c>
@@ -11044,7 +11660,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>66</v>
       </c>
@@ -11055,7 +11671,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>68</v>
       </c>
@@ -11066,7 +11682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>124</v>
       </c>
@@ -11077,7 +11693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>70</v>
       </c>
@@ -11088,7 +11704,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>126</v>
       </c>
@@ -11099,7 +11715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>72</v>
       </c>
@@ -11110,7 +11726,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>74</v>
       </c>
@@ -11121,7 +11737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
         <v>76</v>
       </c>
@@ -11132,7 +11748,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>78</v>
       </c>
@@ -11143,7 +11759,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
         <v>128</v>
       </c>
@@ -11154,7 +11770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
         <v>130</v>
       </c>
@@ -11165,7 +11781,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>80</v>
       </c>
@@ -11176,7 +11792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
         <v>82</v>
       </c>
@@ -11187,7 +11803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
         <v>132</v>
       </c>
@@ -11198,7 +11814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
         <v>134</v>
       </c>
@@ -11209,7 +11825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
         <v>84</v>
       </c>
@@ -11220,7 +11836,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
         <v>86</v>
       </c>
@@ -11231,7 +11847,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
         <v>88</v>
       </c>
@@ -11242,7 +11858,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
         <v>90</v>
       </c>
@@ -11253,7 +11869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
         <v>92</v>
       </c>
@@ -11264,7 +11880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>136</v>
       </c>
@@ -11275,7 +11891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
         <v>94</v>
       </c>
@@ -11286,7 +11902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
         <v>96</v>
       </c>
@@ -11297,7 +11913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>98</v>
       </c>
@@ -11308,7 +11924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
         <v>138</v>
       </c>
@@ -11319,7 +11935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
         <v>140</v>
       </c>
@@ -11330,7 +11946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
         <v>142</v>
       </c>
@@ -11341,7 +11957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
         <v>144</v>
       </c>
@@ -11352,7 +11968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>146</v>
       </c>
@@ -11363,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>100</v>
       </c>
@@ -11374,7 +11990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>102</v>
       </c>
@@ -11385,7 +12001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
         <v>148</v>
       </c>
@@ -11396,7 +12012,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
         <v>104</v>
       </c>
@@ -11407,7 +12023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
         <v>106</v>
       </c>
@@ -11418,7 +12034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
         <v>150</v>
       </c>
@@ -11429,7 +12045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
         <v>108</v>
       </c>
@@ -11440,7 +12056,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
         <v>152</v>
       </c>
@@ -11451,7 +12067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
         <v>154</v>
       </c>
@@ -11462,7 +12078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
         <v>156</v>
       </c>
@@ -11473,7 +12089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>158</v>
       </c>
@@ -11484,7 +12100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>110</v>
       </c>
@@ -11495,7 +12111,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
         <v>160</v>
       </c>
@@ -11506,7 +12122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
         <v>112</v>
       </c>
@@ -11517,7 +12133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>162</v>
       </c>
@@ -11528,7 +12144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
         <v>114</v>
       </c>
@@ -11539,7 +12155,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
         <v>164</v>
       </c>
@@ -11550,7 +12166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
         <v>116</v>
       </c>
@@ -11561,7 +12177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
         <v>166</v>
       </c>
@@ -11572,7 +12188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
         <v>168</v>
       </c>
@@ -11583,7 +12199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
         <v>118</v>
       </c>
@@ -11594,7 +12210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
         <v>170</v>
       </c>
@@ -11605,7 +12221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="27" t="s">
         <v>120</v>
       </c>
@@ -11622,7 +12238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -11630,36 +12246,36 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="13" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="4.375" style="104" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="104" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5" style="104" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.375" style="104" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="104" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.33203125" style="104" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" style="104" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8.5" style="104" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.125" style="104" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.375" style="104" customWidth="1"/>
-    <col min="14" max="14" width="0.125" style="104" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="104" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="104" customWidth="1"/>
+    <col min="14" max="14" width="0.1640625" style="104" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" style="104" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.5" style="104" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.125" style="105" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="11.875" style="104" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.375" style="104" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="12.625" style="104" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="4.375" style="104" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.1640625" style="105" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" style="104" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="104" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" style="104" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="4.33203125" style="104" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="12.375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="10.375" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="5.375" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="6.75" customWidth="1"/>
+    <col min="26" max="26" width="5.33203125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
@@ -11739,7 +12355,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="67" t="s">
         <v>47</v>
       </c>
@@ -11819,7 +12435,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="65" t="s">
         <v>21</v>
       </c>
@@ -11849,7 +12465,7 @@
       <c r="Y3" s="54"/>
       <c r="Z3" s="54"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>23</v>
       </c>
@@ -11929,7 +12545,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>26</v>
       </c>
@@ -12009,7 +12625,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="56" t="s">
         <v>24</v>
       </c>
@@ -12089,7 +12705,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
         <v>25</v>
       </c>
@@ -12169,7 +12785,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="56" t="s">
         <v>22</v>
       </c>
@@ -12249,7 +12865,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="66" t="s">
         <v>28</v>
       </c>
@@ -12279,7 +12895,7 @@
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="62" t="s">
         <v>29</v>
       </c>
@@ -12359,7 +12975,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="62" t="s">
         <v>31</v>
       </c>
@@ -12439,7 +13055,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="62" t="s">
         <v>30</v>
       </c>
@@ -12519,7 +13135,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="62" t="s">
         <v>32</v>
       </c>
@@ -12599,7 +13215,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="62" t="s">
         <v>33</v>
       </c>
@@ -12679,7 +13295,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="62" t="s">
         <v>34</v>
       </c>
@@ -12759,7 +13375,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="62" t="s">
         <v>36</v>
       </c>
@@ -12839,7 +13455,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="62" t="s">
         <v>35</v>
       </c>
@@ -12919,7 +13535,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="65" t="s">
         <v>37</v>
       </c>
@@ -12949,7 +13565,7 @@
       <c r="Y18" s="54"/>
       <c r="Z18" s="54"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="56" t="s">
         <v>41</v>
       </c>
@@ -13029,7 +13645,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="56" t="s">
         <v>45</v>
       </c>
@@ -13109,7 +13725,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="56" t="s">
         <v>39</v>
       </c>
@@ -13189,7 +13805,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="56" t="s">
         <v>43</v>
       </c>
@@ -13269,7 +13885,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="56" t="s">
         <v>40</v>
       </c>
@@ -13349,7 +13965,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="56" t="s">
         <v>44</v>
       </c>
@@ -13429,7 +14045,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="56" t="s">
         <v>38</v>
       </c>
@@ -13509,7 +14125,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="56" t="s">
         <v>42</v>
       </c>
@@ -13590,7 +14206,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AA20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA20">
     <sortCondition ref="Q2:Q20"/>
     <sortCondition ref="A2:A20"/>
   </sortState>
@@ -13599,41 +14215,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X2" sqref="X2:X33"/>
+      <selection pane="bottomLeft" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="4.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.125" style="5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="11.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.1640625" style="5" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="24.625" style="5"/>
+    <col min="18" max="18" width="6.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="24.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13707,7 +14323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -13786,7 +14402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -13816,7 +14432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -13895,7 +14511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -13974,7 +14590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -14053,7 +14669,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -14132,7 +14748,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -14211,7 +14827,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -14290,7 +14906,7 @@
         <v>-24.000000000000014</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -14304,7 +14920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -14383,7 +14999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -14462,7 +15078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
@@ -14541,7 +15157,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>25</v>
       </c>
@@ -14620,7 +15236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -14699,7 +15315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -14713,7 +15329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
@@ -14792,7 +15408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -14871,7 +15487,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -14950,7 +15566,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -15029,7 +15645,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
@@ -15108,7 +15724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>36</v>
       </c>
@@ -15187,7 +15803,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -15266,7 +15882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
@@ -15345,7 +15961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -15359,7 +15975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
@@ -15438,7 +16054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
@@ -15517,7 +16133,7 @@
         <v>25.999999999999986</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
@@ -15596,7 +16212,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
@@ -15675,7 +16291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
@@ -15754,7 +16370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
@@ -15833,7 +16449,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
@@ -15912,7 +16528,7 @@
         <v>-59.999999999999986</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>44</v>
       </c>
@@ -15992,7 +16608,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A26:Q33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:Q33">
     <sortCondition descending="1" ref="M26:M33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16000,34 +16616,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="111" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="111" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="39.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>189</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="123" t="s">
         <v>187</v>
       </c>
       <c r="D1" s="23" t="s">
@@ -16041,45 +16657,45 @@
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="126" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="128" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
       <c r="E2" s="23"/>
       <c r="G2" s="25"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+    </row>
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="121" t="s">
         <v>192</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="13">
         <v>0.91304347826086896</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="124" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="121" t="s">
         <v>193</v>
       </c>
       <c r="E4" t="s">
@@ -16087,7 +16703,7 @@
       </c>
       <c r="H4" s="111"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16097,14 +16713,14 @@
       <c r="C5" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="121" t="s">
         <v>194</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16114,14 +16730,14 @@
       <c r="C6" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="122" t="s">
         <v>195</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16131,22 +16747,22 @@
       <c r="C7" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="122" t="s">
         <v>196</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="126" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="128" t="s">
         <v>204</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -16156,14 +16772,14 @@
       <c r="C9" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="120" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="121" t="s">
+      <c r="E9" s="120" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="25">
         <v>2</v>
       </c>
@@ -16180,7 +16796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -16197,8 +16813,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="121">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="120">
         <v>4</v>
       </c>
       <c r="B12" s="13">
@@ -16214,8 +16830,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="121">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="120">
         <v>5</v>
       </c>
       <c r="B13" s="13">
@@ -16231,7 +16847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="111"/>
     </row>
   </sheetData>
@@ -16244,7 +16860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -16252,35 +16868,35 @@
       <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5" customWidth="1"/>
-    <col min="18" max="18" width="7.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.375" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -16363,7 +16979,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I2" s="13"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -16374,7 +16990,7 @@
       <c r="X2" s="22"/>
       <c r="Y2" s="22"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>181</v>
       </c>
@@ -16388,7 +17004,7 @@
       <c r="X3" s="22"/>
       <c r="Y3" s="22"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>172</v>
       </c>
@@ -16402,7 +17018,7 @@
       <c r="X4" s="22"/>
       <c r="Y4" s="22"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -16491,7 +17107,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -16580,7 +17196,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -16669,7 +17285,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -16758,7 +17374,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -16847,7 +17463,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -16936,7 +17552,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I12" s="13"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -16950,7 +17566,7 @@
       <c r="X12" s="22"/>
       <c r="Y12" s="22"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>173</v>
       </c>
@@ -16967,7 +17583,7 @@
       <c r="X13" s="22"/>
       <c r="Y13" s="22"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -17056,7 +17672,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -17145,7 +17761,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -17234,7 +17850,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -17323,7 +17939,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -17412,7 +18028,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -17507,7 +18123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -17515,17 +18131,17 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -17545,12 +18161,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="13"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>181</v>
       </c>
@@ -17558,7 +18174,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>172</v>
       </c>
@@ -17566,7 +18182,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -17586,7 +18202,7 @@
         <v>0.99500831946755397</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -17606,7 +18222,7 @@
         <v>0.99342139342139302</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -17626,7 +18242,7 @@
         <v>0.99495338383417897</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -17646,7 +18262,7 @@
         <v>0.99206411565962105</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -17666,7 +18282,7 @@
         <v>0.99001244289093004</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -17686,13 +18302,13 @@
         <v>0.99357876712328697</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="13"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
         <v>173</v>
       </c>
@@ -17701,7 +18317,7 @@
       <c r="D13" s="6"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -17721,7 +18337,7 @@
         <v>0.99383802816901401</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -17741,7 +18357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -17761,7 +18377,7 @@
         <v>0.99383802816901401</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -17781,7 +18397,7 @@
         <v>0.99252290452032998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -17801,7 +18417,7 @@
         <v>0.99208707051844303</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -17827,49 +18443,49 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="104" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="104" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="104" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="104" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="104" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="104" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" style="104" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="104" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="104" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="104" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="104" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" style="104" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="104" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="104" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.375" style="104" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="104" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" style="104" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="120" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120" t="s">
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -17909,8 +18525,11 @@
       <c r="M2" s="109" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="131" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>47</v>
       </c>
@@ -17920,7 +18539,7 @@
       <c r="C3" s="40">
         <v>1</v>
       </c>
-      <c r="D3" s="128">
+      <c r="D3" s="126">
         <v>1</v>
       </c>
       <c r="E3" s="40">
@@ -17950,8 +18569,12 @@
       <c r="M3" s="43">
         <v>0.99383802816901401</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="14">
+        <f>L3-F3</f>
+        <v>0.31333333333333324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>23</v>
       </c>
@@ -17961,7 +18584,7 @@
       <c r="C4" s="58">
         <v>1</v>
       </c>
-      <c r="D4" s="127">
+      <c r="D4" s="125">
         <v>0.89610389610389607</v>
       </c>
       <c r="E4" s="40">
@@ -17991,8 +18614,12 @@
       <c r="M4" s="60">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="14">
+        <f t="shared" ref="N4:N8" si="0">L4-F4</f>
+        <v>0.19333333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>26</v>
       </c>
@@ -18002,7 +18629,7 @@
       <c r="C5" s="58">
         <v>1</v>
       </c>
-      <c r="D5" s="127">
+      <c r="D5" s="125">
         <v>0.83516483516483508</v>
       </c>
       <c r="E5" s="40">
@@ -18032,8 +18659,12 @@
       <c r="M5" s="43">
         <v>0.99383802816901401</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="14">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="56" t="s">
         <v>24</v>
       </c>
@@ -18043,7 +18674,7 @@
       <c r="C6" s="40">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D6" s="127">
+      <c r="D6" s="125">
         <v>0.81384836163597218</v>
       </c>
       <c r="E6" s="40">
@@ -18073,8 +18704,12 @@
       <c r="M6" s="43">
         <v>0.99252290452032998</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="14">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333308E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
         <v>25</v>
       </c>
@@ -18084,7 +18719,7 @@
       <c r="C7" s="40">
         <v>0.70129870129870131</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D7" s="125">
         <v>0.86470864661654134</v>
       </c>
       <c r="E7" s="40">
@@ -18114,8 +18749,12 @@
       <c r="M7" s="43">
         <v>0.99208707051844303</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="14">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333308E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="56" t="s">
         <v>22</v>
       </c>
@@ -18125,7 +18764,7 @@
       <c r="C8" s="58">
         <v>1</v>
       </c>
-      <c r="D8" s="129">
+      <c r="D8" s="127">
         <v>0.89869281045751637</v>
       </c>
       <c r="E8" s="58">
@@ -18154,6 +18793,25 @@
       </c>
       <c r="M8" s="43">
         <v>0.99470899470899399</v>
+      </c>
+      <c r="N8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.20666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="130">
+        <f>AVERAGE(F3:F8)</f>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="L10" s="130">
+        <f>AVERAGE(L3:L8)</f>
+        <v>0.91</v>
+      </c>
+      <c r="M10" s="130"/>
+      <c r="N10" s="14">
+        <f>AVERAGE(N3:N8)</f>
+        <v>0.12999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -18166,49 +18824,49 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="111" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="111" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="120" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="129" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120" t="s">
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129" t="s">
         <v>184</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
@@ -18249,7 +18907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="113" t="s">
         <v>47</v>
       </c>
@@ -18290,7 +18948,7 @@
         <v>0.99500831946755397</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="114" t="s">
         <v>23</v>
       </c>
@@ -18331,7 +18989,7 @@
         <v>0.99342139342139302</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="114" t="s">
         <v>26</v>
       </c>
@@ -18372,7 +19030,7 @@
         <v>0.99495338383417897</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="114" t="s">
         <v>24</v>
       </c>
@@ -18413,7 +19071,7 @@
         <v>0.99206411565962105</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="114" t="s">
         <v>25</v>
       </c>
@@ -18454,7 +19112,7 @@
         <v>0.99001244289093004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="114" t="s">
         <v>22</v>
       </c>
@@ -18505,49 +19163,57 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="111" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="111" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="120" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B1" s="129" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120" t="s">
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129" t="s">
         <v>184</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="132" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="112" t="s">
         <v>0</v>
       </c>
@@ -18587,8 +19253,26 @@
       <c r="M2" s="109" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q2" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="106" t="s">
+        <v>217</v>
+      </c>
+      <c r="S2" s="109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="113" t="s">
         <v>47</v>
       </c>
@@ -18628,8 +19312,32 @@
       <c r="M3" s="43">
         <v>0.99500831946755397</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="13">
+        <f>H3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <f t="shared" ref="O3:S8" si="0">I3-C3</f>
+        <v>-1.672640382317736E-3</v>
+      </c>
+      <c r="P3" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1702912985400715E-3</v>
+      </c>
+      <c r="Q3" s="13">
+        <f t="shared" si="0"/>
+        <v>-8.6891757696128114E-4</v>
+      </c>
+      <c r="R3" s="36">
+        <f t="shared" si="0"/>
+        <v>-0.15333333333333332</v>
+      </c>
+      <c r="S3" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1702912985399605E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="114" t="s">
         <v>23</v>
       </c>
@@ -18669,8 +19377,32 @@
       <c r="M4" s="108">
         <v>0.99342139342139302</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="13">
+        <f t="shared" ref="N4:N8" si="1">H4-B4</f>
+        <v>-0.12987669294521931</v>
+      </c>
+      <c r="O4" s="13">
+        <f t="shared" si="0"/>
+        <v>-9.3406593406593408E-2</v>
+      </c>
+      <c r="P4" s="13">
+        <f t="shared" si="0"/>
+        <v>-8.0226116256782332E-2</v>
+      </c>
+      <c r="Q4" s="13">
+        <f t="shared" si="0"/>
+        <v>-0.11243943543290502</v>
+      </c>
+      <c r="R4" s="36">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333308E-2</v>
+      </c>
+      <c r="S4" s="13">
+        <f t="shared" si="0"/>
+        <v>-6.5786065786069825E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="114" t="s">
         <v>26</v>
       </c>
@@ -18710,8 +19442,32 @@
       <c r="M5" s="48">
         <v>0.99495338383417897</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="13">
+        <f t="shared" si="1"/>
+        <v>-5.6795835743204126E-2</v>
+      </c>
+      <c r="O5" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.0014727540500479E-3</v>
+      </c>
+      <c r="P5" s="13">
+        <f t="shared" si="0"/>
+        <v>-2.7366730748865642E-2</v>
+      </c>
+      <c r="Q5" s="13">
+        <f t="shared" si="0"/>
+        <v>-2.9149159663865554E-2</v>
+      </c>
+      <c r="R5" s="36">
+        <f t="shared" si="0"/>
+        <v>-2.6666666666666616E-2</v>
+      </c>
+      <c r="S5" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1153556651649632E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="114" t="s">
         <v>24</v>
       </c>
@@ -18751,8 +19507,32 @@
       <c r="M6" s="108">
         <v>0.99206411565962105</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="13">
+        <f t="shared" si="1"/>
+        <v>-3.2165391327695025E-2</v>
+      </c>
+      <c r="O6" s="13">
+        <f t="shared" si="0"/>
+        <v>2.7113237639553422E-2</v>
+      </c>
+      <c r="P6" s="13">
+        <f t="shared" si="0"/>
+        <v>-7.7747454954322226E-3</v>
+      </c>
+      <c r="Q6" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111738E-3</v>
+      </c>
+      <c r="R6" s="36">
+        <f t="shared" si="0"/>
+        <v>-6.6666666666665986E-3</v>
+      </c>
+      <c r="S6" s="13">
+        <f t="shared" si="0"/>
+        <v>-4.5878886070893632E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="114" t="s">
         <v>25</v>
       </c>
@@ -18792,8 +19572,32 @@
       <c r="M7" s="108">
         <v>0.99001244289093004</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="13">
+        <f t="shared" si="1"/>
+        <v>-5.3113553113552925E-3</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" si="0"/>
+        <v>2.5047947430751338E-2</v>
+      </c>
+      <c r="P7" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0165085345590796E-2</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7190152801358272E-2</v>
+      </c>
+      <c r="R7" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="13">
+        <f t="shared" si="0"/>
+        <v>-2.0746276275129816E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="114" t="s">
         <v>22</v>
       </c>
@@ -18833,11 +19637,36 @@
       <c r="M8" s="108">
         <v>0.99357876712328697</v>
       </c>
+      <c r="N8" s="13">
+        <f t="shared" si="1"/>
+        <v>-8.9473684210526261E-2</v>
+      </c>
+      <c r="O8" s="13">
+        <f t="shared" si="0"/>
+        <v>-7.1153524192197892E-3</v>
+      </c>
+      <c r="P8" s="13">
+        <f t="shared" si="0"/>
+        <v>-4.4736842105263186E-2</v>
+      </c>
+      <c r="Q8" s="13">
+        <f t="shared" si="0"/>
+        <v>-4.8420262872703956E-2</v>
+      </c>
+      <c r="R8" s="36">
+        <f t="shared" si="0"/>
+        <v>-6.6666666666667096E-3</v>
+      </c>
+      <c r="S8" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.1302275857070221E-3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
